--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_152.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_152.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,241 +488,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1339285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.22, 14.32), (7.4, 16.48)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.66, 6.48), (1.26, 8.22)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:59.500000', '0:01:05.040000'), ('0:00:00.340000', '0:00:17.940000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:09.940000'), ('0:00:10.540000', '0:00:12.720000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08831168831168831</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1277777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.088141, 27.709728)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:06.960000', '0:00:09.200000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(38.438956, 41.94517)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'A/5', 'D'], ['E:min/5', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'F', 'Bb'], ['A:min', 'F:7', 'Bb']]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(78.045663, 83.103979), (8.846564, 18.877585)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.780907, 16.34517), (8.148526, 11.631519)]</t>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:17.016000', '0:00:22.841000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1488469601677149</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
+          <t>[['G', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:10.090897', '0:00:18.241101')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2316176470588235</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (34.86, 39.7), (12.14, 20.02)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (32.2, 36.2), (1.26, 5.44)]</t>
+          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:17.839297', '0:00:22.785147')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -725,400 +760,380 @@
           <t>schubert-winterreise_129</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.995918, 52.29941)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(154.76, 160.98)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(127.6, 133.42)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1632743362831858</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A:7', 'E']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.46, 3.69)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.737596, 29.7717)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.64, 14.0)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1821631878557875</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D/5']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(35.810988, 42.010716)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.919478)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'F:maj', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'G', 'A', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.761, 36.091)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.109319, 34.307505)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.03, 43.842)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1459177764910249</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.201048951048951</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7'], ['F:min', 'F:min', 'C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G'], ['A:min', 'A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.89, 19.531), (246.38, 249.93)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.34, 16.7), (10.76, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
